--- a/resources/QualityTest.xlsx
+++ b/resources/QualityTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/826060f01241f503/Skrivbord/repos/SIMS-WebCrawler/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlp\Desktop\repos\SIMS-WebCrawler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{67868C1D-742C-4AF8-9867-06ED768736DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC982DF1-BCB1-4322-9EC0-E226891399D9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E66926-67B6-4425-979E-C4ABD5AE7D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="2385" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="-9960" windowWidth="12580" windowHeight="8920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Varumärke</t>
   </si>
@@ -86,91 +86,10 @@
     <t>DN15 PN10-40</t>
   </si>
   <si>
-    <t>2-0115-50</t>
+    <t>Weidmüller</t>
   </si>
   <si>
-    <t>DN25 PN10-40</t>
-  </si>
-  <si>
-    <t>INA</t>
-  </si>
-  <si>
-    <t>PASE30-N</t>
-  </si>
-  <si>
-    <t>Hansen Industrial Transmissions</t>
-  </si>
-  <si>
-    <t>034-T085401</t>
-  </si>
-  <si>
-    <t>Aventics</t>
-  </si>
-  <si>
-    <t>(Rexroth)</t>
-  </si>
-  <si>
-    <t>ABB</t>
-  </si>
-  <si>
-    <t>MIP20-4112-318</t>
-  </si>
-  <si>
-    <t>0-25bar</t>
-  </si>
-  <si>
-    <t>Phoenix Contact</t>
-  </si>
-  <si>
-    <t>UK 4-TG</t>
-  </si>
-  <si>
-    <t>Isiflo</t>
-  </si>
-  <si>
-    <t>122 16-1/2"R</t>
-  </si>
-  <si>
-    <t>115 63-2 1/2"R</t>
-  </si>
-  <si>
-    <t>Camozzi</t>
-  </si>
-  <si>
-    <t>40L40</t>
-  </si>
-  <si>
-    <t>SFN72B16I-B3</t>
-  </si>
-  <si>
-    <t>THK</t>
-  </si>
-  <si>
-    <t>GSR-4480LI</t>
-  </si>
-  <si>
-    <t>G=20/20  F=60</t>
-  </si>
-  <si>
-    <t>Specma Hydraulic</t>
-  </si>
-  <si>
-    <t>40023-08</t>
-  </si>
-  <si>
-    <t>(40022-08)</t>
-  </si>
-  <si>
-    <t>0022-12</t>
-  </si>
-  <si>
-    <t>40022-12</t>
-  </si>
-  <si>
-    <t>Hydac</t>
-  </si>
-  <si>
-    <t>HDA 4745-A-250-000</t>
+    <t>SAKR 2STB</t>
   </si>
 </sst>
 </file>
@@ -730,10 +649,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1034,10 +949,15 @@
   <dimension ref="A1:J159163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1098,182 +1018,23 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B4">
+        <v>412260000</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
+      </c>
+      <c r="H4">
+        <v>2920154</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>490700706</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>2812018</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
       <c r="G13" s="14"/>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17">
-        <v>906392</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="343" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F343" s="1"/>

--- a/resources/QualityTest.xlsx
+++ b/resources/QualityTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/826060f01241f503/Skrivbord/repos/SIMS-WebCrawler/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gianlucavonehrenberg/PycharmProjects/SIMS-WebCrawler/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{67868C1D-742C-4AF8-9867-06ED768736DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC982DF1-BCB1-4322-9EC0-E226891399D9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116FAF3-7D88-B347-963B-697BDEE2032F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="2385" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5260" yWindow="2380" windowWidth="21600" windowHeight="11840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Varumärke</t>
   </si>
@@ -138,39 +138,6 @@
   </si>
   <si>
     <t>40L40</t>
-  </si>
-  <si>
-    <t>SFN72B16I-B3</t>
-  </si>
-  <si>
-    <t>THK</t>
-  </si>
-  <si>
-    <t>GSR-4480LI</t>
-  </si>
-  <si>
-    <t>G=20/20  F=60</t>
-  </si>
-  <si>
-    <t>Specma Hydraulic</t>
-  </si>
-  <si>
-    <t>40023-08</t>
-  </si>
-  <si>
-    <t>(40022-08)</t>
-  </si>
-  <si>
-    <t>0022-12</t>
-  </si>
-  <si>
-    <t>40022-12</t>
-  </si>
-  <si>
-    <t>Hydac</t>
-  </si>
-  <si>
-    <t>HDA 4745-A-250-000</t>
   </si>
 </sst>
 </file>
@@ -730,10 +697,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1034,12 +997,12 @@
   <dimension ref="A1:J159163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1082,7 +1045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1096,7 +1059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1110,7 +1073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1121,7 +1084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1132,7 +1095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1146,7 +1109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1160,7 +1123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1174,7 +1137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1185,7 +1148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1196,7 +1159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1207,2821 +1170,2756 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G13" s="14"/>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17">
-        <v>906392</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="343" spans="6:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F343" s="1"/>
     </row>
-    <row r="353" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F353" s="1"/>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B432" s="2"/>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B593" s="3"/>
     </row>
-    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B688" s="2"/>
     </row>
-    <row r="715" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B715" s="4"/>
     </row>
-    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B742" s="4"/>
     </row>
-    <row r="747" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B747" s="4"/>
     </row>
-    <row r="748" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B748" s="4"/>
     </row>
-    <row r="776" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B776" s="2"/>
     </row>
-    <row r="1022" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1022" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1022" s="3"/>
     </row>
-    <row r="2246" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="2246" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2246" s="5"/>
     </row>
-    <row r="2467" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="2467" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2467" s="5"/>
     </row>
-    <row r="2560" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2560" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2560" s="2"/>
     </row>
-    <row r="2891" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2891" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2891" s="2"/>
     </row>
-    <row r="3048" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="3048" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E3048" s="6"/>
     </row>
-    <row r="3051" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="3051" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E3051" s="6"/>
     </row>
-    <row r="3054" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="3054" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E3054" s="6"/>
     </row>
-    <row r="3058" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="3058" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E3058" s="6"/>
     </row>
-    <row r="3061" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="3061" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E3061" s="6"/>
     </row>
-    <row r="3063" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="3063" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E3063" s="6"/>
     </row>
-    <row r="3691" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3691" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3691" s="2"/>
     </row>
-    <row r="4291" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="4291" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D4291" s="4"/>
     </row>
-    <row r="4326" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="4326" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D4326" s="4"/>
     </row>
-    <row r="4515" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4515" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4515" s="2"/>
     </row>
-    <row r="4520" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4520" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4520" s="2"/>
     </row>
-    <row r="4559" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="4559" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D4559" s="3"/>
     </row>
-    <row r="4648" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4648" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4648" s="2"/>
     </row>
-    <row r="4649" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4649" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4649" s="2"/>
     </row>
-    <row r="4973" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="4973" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F4973" s="6"/>
     </row>
-    <row r="4998" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4998" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4998" s="2"/>
     </row>
-    <row r="5084" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5084" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5084" s="2"/>
     </row>
-    <row r="5226" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="5226" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F5226" s="5"/>
     </row>
-    <row r="5658" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5658" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5658" s="2"/>
     </row>
-    <row r="5671" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="5671" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F5671" s="7"/>
     </row>
-    <row r="5715" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5715" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5715" s="2"/>
     </row>
-    <row r="5762" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="5762" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F5762" s="6"/>
     </row>
-    <row r="5771" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="5771" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F5771" s="6"/>
     </row>
-    <row r="5795" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="5795" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F5795" s="6"/>
     </row>
-    <row r="5802" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="5802" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F5802" s="6"/>
     </row>
-    <row r="5828" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="5828" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F5828" s="6"/>
     </row>
-    <row r="5949" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="5949" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F5949" s="6"/>
     </row>
-    <row r="5971" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="5971" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D5971" s="3"/>
     </row>
-    <row r="6065" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6065" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6065" s="2"/>
     </row>
-    <row r="6089" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="6089" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F6089" s="6"/>
     </row>
-    <row r="6299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6299" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6299" s="2"/>
     </row>
-    <row r="6538" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6538" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6538" s="2"/>
     </row>
-    <row r="6540" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6540" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6540" s="2"/>
     </row>
-    <row r="6739" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6739" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C6739" s="5"/>
       <c r="F6739" s="5"/>
     </row>
-    <row r="6949" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="6949" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C6949" s="4"/>
     </row>
-    <row r="6953" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="6953" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C6953" s="4"/>
     </row>
-    <row r="6982" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="6982" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C6982" s="4"/>
     </row>
-    <row r="7047" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7047" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7047" s="2"/>
     </row>
-    <row r="7137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7137" s="2"/>
     </row>
-    <row r="7152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7152" s="2"/>
     </row>
-    <row r="7416" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="7416" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D7416" s="4"/>
     </row>
-    <row r="7874" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7874" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7874" s="2"/>
     </row>
-    <row r="7983" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7983" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7983" s="2"/>
     </row>
-    <row r="8125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8125" s="2"/>
     </row>
-    <row r="8373" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="8373" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C8373" s="4"/>
     </row>
-    <row r="8561" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="8561" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C8561" s="4"/>
     </row>
-    <row r="8673" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8673" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8673" s="2"/>
     </row>
-    <row r="8860" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="8860" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E8860" s="3"/>
     </row>
-    <row r="9026" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9026" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9026" s="8"/>
     </row>
-    <row r="9105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9105" s="4"/>
     </row>
-    <row r="9318" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="9318" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F9318" s="6"/>
     </row>
-    <row r="9417" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9417" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9417" s="3"/>
     </row>
-    <row r="9697" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="9697" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C9697" s="2"/>
     </row>
-    <row r="9759" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="9759" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D9759" s="4"/>
     </row>
-    <row r="9993" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="9993" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F9993" s="2"/>
     </row>
-    <row r="10345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10345" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10345" s="2"/>
     </row>
-    <row r="10529" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10529" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10529" s="2"/>
     </row>
-    <row r="10559" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10559" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F10559" s="5"/>
     </row>
-    <row r="11088" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="11088" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C11088" s="3"/>
     </row>
-    <row r="11129" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="11129" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F11129" s="5"/>
     </row>
-    <row r="11509" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="11509" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D11509" s="3"/>
     </row>
-    <row r="12059" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12059" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12059" s="2"/>
     </row>
-    <row r="12060" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12060" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12060" s="2"/>
     </row>
-    <row r="12061" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12061" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12061" s="2"/>
     </row>
-    <row r="12091" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12091" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12091" s="8"/>
     </row>
-    <row r="12977" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12977" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12977" s="2"/>
     </row>
-    <row r="12978" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12978" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12978" s="2"/>
     </row>
-    <row r="12979" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12979" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12979" s="2"/>
     </row>
-    <row r="13024" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13024" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13024" s="2"/>
     </row>
-    <row r="13157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13157" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13157" s="2"/>
     </row>
-    <row r="13158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13158" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13158" s="2"/>
     </row>
-    <row r="13159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13159" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13159" s="2"/>
     </row>
-    <row r="13374" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="13374" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E13374" s="6"/>
     </row>
-    <row r="14150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14150" s="8"/>
     </row>
-    <row r="14643" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14643" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14643" s="8"/>
     </row>
-    <row r="14649" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14649" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14649" s="8"/>
     </row>
-    <row r="14968" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="14968" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D14968" s="3"/>
     </row>
-    <row r="15122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="15122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D15122" s="3"/>
     </row>
-    <row r="15147" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="15147" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D15147" s="3"/>
     </row>
-    <row r="15388" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="15388" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D15388" s="3"/>
     </row>
-    <row r="16411" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="16411" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E16411" s="3"/>
     </row>
-    <row r="16551" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="16551" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F16551" s="5"/>
     </row>
-    <row r="16595" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16595" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16595" s="2"/>
     </row>
-    <row r="16609" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16609" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16609" s="2"/>
     </row>
-    <row r="16621" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16621" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D16621" s="3"/>
     </row>
-    <row r="16899" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16899" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16899" s="2"/>
     </row>
-    <row r="17028" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17028" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17028" s="8"/>
     </row>
-    <row r="17084" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17084" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17084" s="8"/>
     </row>
-    <row r="17157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17157" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17157" s="8"/>
     </row>
-    <row r="17165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17165" s="8"/>
     </row>
-    <row r="17278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17278" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17278" s="8"/>
     </row>
-    <row r="17830" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17830" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17830" s="5"/>
     </row>
-    <row r="17925" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17925" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17925" s="5"/>
     </row>
-    <row r="17926" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17926" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17926" s="5"/>
     </row>
-    <row r="18120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18120" s="4"/>
     </row>
-    <row r="18123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18123" s="4"/>
     </row>
-    <row r="18923" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18923" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18923" s="3"/>
     </row>
-    <row r="19733" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19733" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19733" s="6"/>
     </row>
-    <row r="19837" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19837" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19837" s="9"/>
     </row>
-    <row r="20098" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20098" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20098" s="9"/>
     </row>
-    <row r="20166" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20166" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20166" s="3"/>
     </row>
-    <row r="20512" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20512" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20512" s="9"/>
     </row>
-    <row r="20893" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="20893" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F20893" s="5"/>
     </row>
-    <row r="22058" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22058" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22058" s="3"/>
     </row>
-    <row r="23150" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23150" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23150" s="3"/>
     </row>
-    <row r="23202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23202" s="2"/>
     </row>
-    <row r="23525" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23525" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23525" s="5"/>
     </row>
-    <row r="24177" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24177" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24177" s="3"/>
     </row>
-    <row r="24223" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="24223" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F24223" s="3"/>
     </row>
-    <row r="24482" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24482" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24482" s="3"/>
     </row>
-    <row r="25017" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25017" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25017" s="8"/>
     </row>
-    <row r="25027" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25027" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25027" s="2"/>
     </row>
-    <row r="25064" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25064" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25064" s="4"/>
     </row>
-    <row r="25068" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25068" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25068" s="4"/>
     </row>
-    <row r="25268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25268" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25268" s="3"/>
     </row>
-    <row r="25310" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25310" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25310" s="4"/>
     </row>
-    <row r="25316" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25316" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C25316" s="4"/>
     </row>
-    <row r="25322" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25322" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25322" s="2"/>
     </row>
-    <row r="25352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25352" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25352" s="3"/>
     </row>
-    <row r="25560" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25560" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25560" s="4"/>
     </row>
-    <row r="25652" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25652" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25652" s="4"/>
     </row>
-    <row r="25702" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25702" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25702" s="8"/>
     </row>
-    <row r="25957" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25957" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25957" s="2"/>
     </row>
-    <row r="26235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26235" s="2"/>
     </row>
-    <row r="26236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26236" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26236" s="2"/>
     </row>
-    <row r="26414" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26414" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26414" s="2"/>
     </row>
-    <row r="26652" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26652" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26652" s="2"/>
     </row>
-    <row r="26791" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="26791" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F26791" s="3"/>
     </row>
-    <row r="27002" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="27002" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E27002" s="3"/>
     </row>
-    <row r="27267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27267" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27267" s="2"/>
     </row>
-    <row r="27268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27268" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27268" s="2"/>
     </row>
-    <row r="27536" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27536" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27536" s="2"/>
     </row>
-    <row r="27537" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27537" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27537" s="2"/>
     </row>
-    <row r="27538" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27538" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27538" s="2"/>
     </row>
-    <row r="27579" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27579" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27579" s="8"/>
     </row>
-    <row r="27580" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27580" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27580" s="8"/>
     </row>
-    <row r="29250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29250" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29250" s="2"/>
     </row>
-    <row r="29251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29251" s="2"/>
     </row>
-    <row r="29514" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29514" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29514" s="5"/>
     </row>
-    <row r="29516" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29516" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29516" s="5"/>
     </row>
-    <row r="29539" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29539" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29539" s="5"/>
     </row>
-    <row r="29734" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="29734" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F29734" s="7"/>
     </row>
-    <row r="29933" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29933" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29933" s="4"/>
     </row>
-    <row r="30332" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30332" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30332" s="2"/>
     </row>
-    <row r="30421" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30421" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30421" s="5"/>
     </row>
-    <row r="30423" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30423" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30423" s="5"/>
     </row>
-    <row r="30424" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30424" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30424" s="5"/>
     </row>
-    <row r="32239" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="32239" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F32239" s="6"/>
     </row>
-    <row r="32281" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32281" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D32281" s="3"/>
     </row>
-    <row r="38230" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38230" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38230" s="5"/>
     </row>
-    <row r="41089" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41089" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41089" s="4"/>
     </row>
-    <row r="41091" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41091" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41091" s="4"/>
     </row>
-    <row r="42221" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42221" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42221" s="3"/>
     </row>
-    <row r="42293" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42293" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42293" s="3"/>
     </row>
-    <row r="44669" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44669" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44669" s="5"/>
     </row>
-    <row r="45412" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45412" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E45412" s="10"/>
     </row>
-    <row r="45836" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45836" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E45836" s="6"/>
     </row>
-    <row r="46744" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46744" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46744" s="3"/>
     </row>
-    <row r="46776" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46776" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46776" s="3"/>
     </row>
-    <row r="46859" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46859" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46859" s="3"/>
     </row>
-    <row r="46869" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46869" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46869" s="3"/>
     </row>
-    <row r="46890" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46890" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46890" s="3"/>
     </row>
-    <row r="46939" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46939" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46939" s="3"/>
     </row>
-    <row r="47118" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47118" s="3"/>
     </row>
-    <row r="47156" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47156" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47156" s="3"/>
     </row>
-    <row r="47178" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47178" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47178" s="3"/>
     </row>
-    <row r="47377" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47377" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47377" s="3"/>
     </row>
-    <row r="47395" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47395" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47395" s="3"/>
     </row>
-    <row r="47459" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47459" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47459" s="3"/>
     </row>
-    <row r="47487" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47487" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47487" s="3"/>
     </row>
-    <row r="47492" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47492" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47492" s="3"/>
     </row>
-    <row r="47668" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47668" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47668" s="3"/>
     </row>
-    <row r="47690" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47690" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47690" s="3"/>
     </row>
-    <row r="47705" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47705" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47705" s="4"/>
     </row>
-    <row r="47745" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47745" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47745" s="4"/>
     </row>
-    <row r="47895" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47895" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47895" s="3"/>
     </row>
-    <row r="48195" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48195" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48195" s="3"/>
     </row>
-    <row r="48274" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48274" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48274" s="3"/>
     </row>
-    <row r="48318" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48318" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48318" s="3"/>
     </row>
-    <row r="48326" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48326" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48326" s="4"/>
     </row>
-    <row r="48349" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48349" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48349" s="3"/>
     </row>
-    <row r="48366" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48366" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48366" s="3"/>
     </row>
-    <row r="48410" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48410" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48410" s="3"/>
     </row>
-    <row r="49457" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49457" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49457" s="2"/>
     </row>
-    <row r="49713" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49713" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49713" s="3"/>
     </row>
-    <row r="49777" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49777" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49777" s="4"/>
     </row>
-    <row r="49823" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49823" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49823" s="4"/>
     </row>
-    <row r="50593" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50593" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50593" s="5"/>
     </row>
-    <row r="50594" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50594" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50594" s="5"/>
     </row>
-    <row r="51017" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51017" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51017" s="3"/>
     </row>
-    <row r="51037" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51037" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51037" s="3"/>
     </row>
-    <row r="51648" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51648" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51648" s="4"/>
     </row>
-    <row r="51729" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51729" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51729" s="4"/>
     </row>
-    <row r="53085" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53085" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53085" s="2"/>
     </row>
-    <row r="54177" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="54177" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54177" s="5"/>
       <c r="D54177" s="5"/>
     </row>
-    <row r="54178" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="54178" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54178" s="5"/>
       <c r="D54178" s="5"/>
       <c r="F54178" s="5"/>
     </row>
-    <row r="54179" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="54179" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54179" s="5"/>
       <c r="D54179" s="5"/>
       <c r="F54179" s="5"/>
     </row>
-    <row r="54359" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54359" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54359" s="8"/>
     </row>
-    <row r="54437" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54437" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54437" s="2"/>
     </row>
-    <row r="54876" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54876" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54876" s="4"/>
     </row>
-    <row r="55073" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55073" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55073" s="4"/>
     </row>
-    <row r="55454" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55454" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55454" s="2"/>
     </row>
-    <row r="55612" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55612" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55612" s="2"/>
     </row>
-    <row r="55765" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55765" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55765" s="2"/>
     </row>
-    <row r="56136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56136" s="2"/>
     </row>
-    <row r="56172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56172" s="2"/>
     </row>
-    <row r="56340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56340" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56340" s="2"/>
     </row>
-    <row r="56353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56353" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56353" s="8"/>
     </row>
-    <row r="56386" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56386" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56386" s="4"/>
     </row>
-    <row r="56388" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56388" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56388" s="4"/>
     </row>
-    <row r="57240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57240" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57240" s="8"/>
     </row>
-    <row r="57244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57244" s="8"/>
     </row>
-    <row r="57252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57252" s="8"/>
     </row>
-    <row r="57253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57253" s="8"/>
     </row>
-    <row r="57275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57275" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57275" s="8"/>
     </row>
-    <row r="57307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57307" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57307" s="8"/>
     </row>
-    <row r="57311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57311" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57311" s="8"/>
     </row>
-    <row r="57389" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57389" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57389" s="2"/>
     </row>
-    <row r="58001" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58001" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58001" s="4"/>
     </row>
-    <row r="58030" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58030" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58030" s="2"/>
     </row>
-    <row r="58031" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58031" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58031" s="2"/>
     </row>
-    <row r="58032" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58032" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58032" s="2"/>
     </row>
-    <row r="58286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58286" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58286" s="2"/>
     </row>
-    <row r="58287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58287" s="2"/>
     </row>
-    <row r="58294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58294" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58294" s="2"/>
     </row>
-    <row r="58507" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58507" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58507" s="2"/>
     </row>
-    <row r="58690" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58690" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F58690" s="5"/>
     </row>
-    <row r="58715" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58715" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58715" s="4"/>
     </row>
-    <row r="58748" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58748" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58748" s="4"/>
     </row>
-    <row r="58761" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58761" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58761" s="4"/>
     </row>
-    <row r="58846" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58846" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58846" s="3"/>
     </row>
-    <row r="58857" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58857" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58857" s="4"/>
     </row>
-    <row r="59100" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59100" s="3"/>
     </row>
-    <row r="59750" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59750" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F59750" s="6"/>
     </row>
-    <row r="60458" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60458" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60458" s="2"/>
     </row>
-    <row r="60459" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60459" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60459" s="2"/>
     </row>
-    <row r="60460" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60460" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60460" s="2"/>
     </row>
-    <row r="60461" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60461" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60461" s="2"/>
     </row>
-    <row r="60462" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60462" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60462" s="2"/>
     </row>
-    <row r="60463" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60463" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60463" s="2"/>
     </row>
-    <row r="60466" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60466" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60466" s="2"/>
     </row>
-    <row r="60467" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60467" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60467" s="2"/>
     </row>
-    <row r="60468" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60468" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60468" s="2"/>
     </row>
-    <row r="60474" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60474" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60474" s="2"/>
     </row>
-    <row r="60478" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60478" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60478" s="2"/>
     </row>
-    <row r="61414" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61414" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F61414" s="6"/>
     </row>
-    <row r="61903" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61903" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61903" s="2"/>
     </row>
-    <row r="62264" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62264" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62264" s="4"/>
     </row>
-    <row r="62347" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62347" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62347" s="4"/>
     </row>
-    <row r="62392" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62392" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62392" s="4"/>
     </row>
-    <row r="62441" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62441" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62441" s="4"/>
     </row>
-    <row r="62444" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62444" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62444" s="4"/>
     </row>
-    <row r="62478" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62478" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62478" s="4"/>
     </row>
-    <row r="62505" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62505" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62505" s="4"/>
     </row>
-    <row r="62513" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62513" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62513" s="4"/>
     </row>
-    <row r="62591" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62591" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62591" s="5"/>
     </row>
-    <row r="62607" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62607" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F62607" s="7"/>
     </row>
-    <row r="62608" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62608" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F62608" s="6"/>
     </row>
-    <row r="62609" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62609" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F62609" s="6"/>
     </row>
-    <row r="62610" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62610" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F62610" s="7"/>
     </row>
-    <row r="63228" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63228" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63228" s="6"/>
     </row>
-    <row r="63755" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63755" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63755" s="6"/>
     </row>
-    <row r="63756" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63756" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63756" s="6"/>
     </row>
-    <row r="63758" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63758" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63758" s="6"/>
     </row>
-    <row r="63759" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63759" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63759" s="6"/>
     </row>
-    <row r="63760" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63760" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63760" s="6"/>
     </row>
-    <row r="63762" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63762" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63762" s="6"/>
     </row>
-    <row r="63763" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63763" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63763" s="6"/>
     </row>
-    <row r="63764" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63764" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63764" s="6"/>
     </row>
-    <row r="63765" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63765" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63765" s="6"/>
     </row>
-    <row r="63767" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63767" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63767" s="6"/>
     </row>
-    <row r="63768" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63768" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63768" s="6"/>
     </row>
-    <row r="63769" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63769" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63769" s="6"/>
     </row>
-    <row r="63903" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63903" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63903" s="6"/>
     </row>
-    <row r="63927" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63927" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63927" s="3"/>
     </row>
-    <row r="64701" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64701" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64701" s="4"/>
     </row>
-    <row r="64798" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="64798" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64798" s="3"/>
     </row>
-    <row r="64823" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64823" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C64823" s="4"/>
     </row>
-    <row r="64824" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64824" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C64824" s="4"/>
     </row>
-    <row r="64829" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64829" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64829" s="4"/>
     </row>
-    <row r="64895" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64895" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64895" s="2"/>
     </row>
-    <row r="64953" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64953" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64953" s="2"/>
     </row>
-    <row r="65016" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65016" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65016" s="4"/>
     </row>
-    <row r="65060" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65060" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65060" s="7"/>
     </row>
-    <row r="65353" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65353" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65353" s="6"/>
     </row>
-    <row r="65432" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65432" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65432" s="6"/>
     </row>
-    <row r="65465" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65465" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65465" s="4"/>
     </row>
-    <row r="65511" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65511" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65511" s="6"/>
     </row>
-    <row r="65556" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65556" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65556" s="4"/>
     </row>
-    <row r="65589" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65589" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65589" s="4"/>
     </row>
-    <row r="65669" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="65669" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G65669" s="6"/>
     </row>
-    <row r="65845" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65845" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65845" s="4"/>
     </row>
-    <row r="65981" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65981" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65981" s="7"/>
     </row>
-    <row r="66174" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66174" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66174" s="3"/>
     </row>
-    <row r="66212" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66212" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66212" s="4"/>
     </row>
-    <row r="66309" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66309" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66309" s="4"/>
     </row>
-    <row r="66341" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66341" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F66341" s="6"/>
     </row>
-    <row r="66461" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66461" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66461" s="4"/>
     </row>
-    <row r="66701" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66701" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F66701" s="6"/>
     </row>
-    <row r="66702" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66702" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F66702" s="6"/>
     </row>
-    <row r="66709" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66709" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F66709" s="6"/>
     </row>
-    <row r="66716" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66716" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F66716" s="6"/>
     </row>
-    <row r="66772" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66772" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66772" s="3"/>
       <c r="F66772" s="6"/>
     </row>
-    <row r="67015" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67015" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67015" s="2"/>
     </row>
-    <row r="67120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67120" s="2"/>
     </row>
-    <row r="67187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67187" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67187" s="2"/>
     </row>
-    <row r="67566" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67566" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67566" s="2"/>
     </row>
-    <row r="67657" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="67657" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F67657" s="5"/>
     </row>
-    <row r="67940" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="67940" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F67940" s="6"/>
     </row>
-    <row r="68201" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="68201" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F68201" s="6"/>
     </row>
-    <row r="68280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68280" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68280" s="2"/>
     </row>
-    <row r="68498" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68498" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68498" s="2"/>
     </row>
-    <row r="68499" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68499" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68499" s="2"/>
     </row>
-    <row r="68525" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68525" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68525" s="2"/>
     </row>
-    <row r="68541" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68541" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68541" s="2"/>
     </row>
-    <row r="68542" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68542" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68542" s="2"/>
     </row>
-    <row r="68545" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68545" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68545" s="2"/>
     </row>
-    <row r="68546" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68546" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68546" s="2"/>
     </row>
-    <row r="68651" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68651" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68651" s="2"/>
     </row>
-    <row r="68656" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68656" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68656" s="2"/>
     </row>
-    <row r="68657" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68657" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68657" s="2"/>
     </row>
-    <row r="68665" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68665" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68665" s="2"/>
     </row>
-    <row r="68696" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68696" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68696" s="3"/>
     </row>
-    <row r="68701" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68701" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68701" s="4"/>
     </row>
-    <row r="68711" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68711" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68711" s="4"/>
     </row>
-    <row r="68716" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68716" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68716" s="4"/>
     </row>
-    <row r="68717" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68717" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68717" s="3"/>
     </row>
-    <row r="68722" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68722" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68722" s="3"/>
     </row>
-    <row r="68724" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68724" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68724" s="4"/>
     </row>
-    <row r="68726" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68726" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68726" s="4"/>
     </row>
-    <row r="68730" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68730" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68730" s="3"/>
     </row>
-    <row r="68748" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68748" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68748" s="4"/>
     </row>
-    <row r="68750" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68750" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68750" s="4"/>
     </row>
-    <row r="68765" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68765" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68765" s="4"/>
     </row>
-    <row r="68780" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68780" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68780" s="3"/>
     </row>
-    <row r="68792" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68792" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68792" s="4"/>
     </row>
-    <row r="68794" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68794" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68794" s="3"/>
     </row>
-    <row r="68801" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68801" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68801" s="4"/>
     </row>
-    <row r="68802" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68802" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68802" s="4"/>
     </row>
-    <row r="68818" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68818" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68818" s="3"/>
     </row>
-    <row r="68836" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68836" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68836" s="3"/>
     </row>
-    <row r="68851" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68851" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68851" s="3"/>
     </row>
-    <row r="68861" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68861" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68861" s="3"/>
     </row>
-    <row r="68866" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68866" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68866" s="3"/>
     </row>
-    <row r="68873" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68873" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68873" s="3"/>
     </row>
-    <row r="68875" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68875" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68875" s="4"/>
     </row>
-    <row r="68891" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68891" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68891" s="4"/>
     </row>
-    <row r="68904" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68904" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68904" s="3"/>
     </row>
-    <row r="68919" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68919" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68919" s="4"/>
     </row>
-    <row r="68922" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68922" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68922" s="3"/>
     </row>
-    <row r="68924" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68924" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68924" s="4"/>
     </row>
-    <row r="68944" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68944" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68944" s="4"/>
     </row>
-    <row r="68952" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68952" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68952" s="3"/>
     </row>
-    <row r="68955" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68955" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68955" s="4"/>
     </row>
-    <row r="68968" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68968" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68968" s="3"/>
     </row>
-    <row r="68975" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68975" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68975" s="3"/>
     </row>
-    <row r="68979" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68979" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68979" s="3"/>
     </row>
-    <row r="68989" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68989" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68989" s="3"/>
     </row>
-    <row r="69010" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69010" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69010" s="5"/>
     </row>
-    <row r="69025" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69025" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69025" s="3"/>
     </row>
-    <row r="69034" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69034" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69034" s="3"/>
     </row>
-    <row r="69035" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69035" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69035" s="3"/>
     </row>
-    <row r="69037" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69037" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69037" s="3"/>
     </row>
-    <row r="69046" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69046" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69046" s="3"/>
     </row>
-    <row r="69047" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69047" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69047" s="3"/>
     </row>
-    <row r="69048" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69048" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69048" s="3"/>
     </row>
-    <row r="69173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69173" s="2"/>
     </row>
-    <row r="69286" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69286" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69286" s="4"/>
     </row>
-    <row r="69300" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69300" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69300" s="3"/>
     </row>
-    <row r="69397" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69397" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69397" s="2"/>
     </row>
-    <row r="69423" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69423" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69423" s="2"/>
     </row>
-    <row r="69754" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69754" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69754" s="2"/>
     </row>
-    <row r="69755" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69755" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69755" s="2"/>
     </row>
-    <row r="69938" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="69938" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F69938" s="5"/>
     </row>
-    <row r="71183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71183" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71183" s="2"/>
     </row>
-    <row r="71184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71184" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71184" s="2"/>
     </row>
-    <row r="72049" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72049" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72049" s="2"/>
     </row>
-    <row r="72737" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72737" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72737" s="2"/>
     </row>
-    <row r="72851" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72851" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72851" s="6"/>
     </row>
-    <row r="73463" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="73463" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F73463" s="6"/>
     </row>
-    <row r="74403" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74403" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74403" s="3"/>
     </row>
-    <row r="74606" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74606" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74606" s="2"/>
     </row>
-    <row r="74607" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74607" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74607" s="2"/>
     </row>
-    <row r="74634" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74634" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74634" s="2"/>
     </row>
-    <row r="74643" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74643" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74643" s="2"/>
     </row>
-    <row r="74644" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74644" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74644" s="2"/>
     </row>
-    <row r="74654" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74654" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74654" s="2"/>
     </row>
-    <row r="74655" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74655" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74655" s="2"/>
     </row>
-    <row r="74834" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74834" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74834" s="3"/>
     </row>
-    <row r="75124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75124" s="2"/>
     </row>
-    <row r="75175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75175" s="2"/>
     </row>
-    <row r="75193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75193" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75193" s="2"/>
     </row>
-    <row r="75499" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75499" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75499" s="6"/>
     </row>
-    <row r="75973" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75973" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75973" s="3"/>
     </row>
-    <row r="75990" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75990" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75990" s="6"/>
     </row>
-    <row r="76119" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76119" s="3"/>
     </row>
-    <row r="76411" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76411" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76411" s="2"/>
     </row>
-    <row r="77067" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77067" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77067" s="2"/>
     </row>
-    <row r="77128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77128" s="2"/>
     </row>
-    <row r="78278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78278" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78278" s="2"/>
     </row>
-    <row r="78282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78282" s="2"/>
     </row>
-    <row r="78343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78343" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78343" s="2"/>
     </row>
-    <row r="79024" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="79024" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F79024" s="6"/>
     </row>
-    <row r="79582" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79582" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79582" s="2"/>
     </row>
-    <row r="79583" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79583" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79583" s="2"/>
     </row>
-    <row r="80072" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="80072" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F80072" s="5"/>
     </row>
-    <row r="80077" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="80077" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F80077" s="5"/>
     </row>
-    <row r="80078" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="80078" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F80078" s="5"/>
     </row>
-    <row r="80329" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80329" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80329" s="8"/>
     </row>
-    <row r="80548" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="80548" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F80548" s="5"/>
     </row>
-    <row r="80996" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80996" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80996" s="5"/>
     </row>
-    <row r="81728" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81728" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81728" s="5"/>
     </row>
-    <row r="81729" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81729" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81729" s="5"/>
     </row>
-    <row r="81730" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81730" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81730" s="5"/>
     </row>
-    <row r="81731" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81731" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81731" s="5"/>
     </row>
-    <row r="81732" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81732" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81732" s="5"/>
     </row>
-    <row r="81733" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81733" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81733" s="5"/>
     </row>
-    <row r="82571" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82571" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82571" s="2"/>
     </row>
-    <row r="82946" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="82946" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F82946" s="5"/>
     </row>
-    <row r="83073" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83073" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83073" s="6"/>
     </row>
-    <row r="83780" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83780" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83780" s="3"/>
     </row>
-    <row r="84114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84114" s="2"/>
     </row>
-    <row r="84163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84163" s="2"/>
     </row>
-    <row r="84370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84370" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84370" s="3"/>
     </row>
-    <row r="84463" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84463" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84463" s="2"/>
     </row>
-    <row r="84652" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84652" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84652" s="2"/>
     </row>
-    <row r="84653" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84653" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84653" s="2"/>
     </row>
-    <row r="84654" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84654" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84654" s="2"/>
     </row>
-    <row r="84655" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84655" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84655" s="2"/>
     </row>
-    <row r="84691" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84691" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84691" s="2"/>
     </row>
-    <row r="84789" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84789" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84789" s="2"/>
     </row>
-    <row r="85119" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85119" s="5"/>
     </row>
-    <row r="86086" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86086" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86086" s="8"/>
     </row>
-    <row r="86094" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86094" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86094" s="8"/>
     </row>
-    <row r="86171" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86171" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86171" s="8"/>
     </row>
-    <row r="86174" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86174" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86174" s="8"/>
     </row>
-    <row r="86177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86177" s="2"/>
     </row>
-    <row r="86198" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86198" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86198" s="8"/>
     </row>
-    <row r="86296" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86296" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86296" s="8"/>
     </row>
-    <row r="86552" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86552" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86552" s="3"/>
     </row>
-    <row r="86885" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86885" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86885" s="5"/>
     </row>
-    <row r="87388" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="87388" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F87388" s="5"/>
     </row>
-    <row r="87846" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87846" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87846" s="3"/>
     </row>
-    <row r="88272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88272" s="2"/>
     </row>
-    <row r="88352" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="88352" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F88352" s="5"/>
     </row>
-    <row r="88625" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88625" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88625" s="2"/>
     </row>
-    <row r="88645" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88645" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88645" s="2"/>
     </row>
-    <row r="88889" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="88889" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F88889" s="5"/>
     </row>
-    <row r="88918" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="88918" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F88918" s="5"/>
     </row>
-    <row r="89057" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="89057" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F89057" s="5"/>
     </row>
-    <row r="89159" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="89159" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F89159" s="5"/>
     </row>
-    <row r="89160" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="89160" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F89160" s="5"/>
     </row>
-    <row r="89498" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89498" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89498" s="2"/>
     </row>
-    <row r="89963" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="89963" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F89963" s="5"/>
     </row>
-    <row r="90093" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90093" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90093" s="5"/>
     </row>
-    <row r="90095" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90095" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90095" s="5"/>
     </row>
-    <row r="90115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90115" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90115" s="5"/>
     </row>
-    <row r="90120" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90120" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90120" s="5"/>
     </row>
-    <row r="90846" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="90846" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F90846" s="5"/>
     </row>
-    <row r="91619" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91619" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91619" s="2"/>
     </row>
-    <row r="91681" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91681" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91681" s="2"/>
     </row>
-    <row r="92112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92112" s="3"/>
     </row>
-    <row r="92435" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="92435" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F92435" s="5"/>
     </row>
-    <row r="92691" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92691" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92691" s="5"/>
     </row>
-    <row r="92969" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92969" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92969" s="3"/>
     </row>
-    <row r="94672" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94672" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94672" s="2"/>
     </row>
-    <row r="94942" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94942" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94942" s="3"/>
     </row>
-    <row r="95129" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95129" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95129" s="11"/>
     </row>
-    <row r="95131" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95131" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95131" s="7"/>
     </row>
-    <row r="95136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95136" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95136" s="11"/>
     </row>
-    <row r="95138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D95138" s="11"/>
     </row>
-    <row r="95140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95140" s="2"/>
     </row>
-    <row r="95145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D95145" s="11"/>
     </row>
-    <row r="95147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D95147" s="11"/>
     </row>
-    <row r="95665" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95665" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95665" s="2"/>
     </row>
-    <row r="95666" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95666" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95666" s="2"/>
     </row>
-    <row r="95883" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95883" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95883" s="3"/>
     </row>
-    <row r="96286" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96286" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96286" s="5"/>
     </row>
-    <row r="96310" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96310" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96310" s="5"/>
     </row>
-    <row r="96337" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="96337" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F96337" s="5"/>
     </row>
-    <row r="96516" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="96516" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F96516" s="5"/>
     </row>
-    <row r="96541" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96541" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B96541" s="2"/>
     </row>
-    <row r="96598" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="96598" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F96598" s="12"/>
     </row>
-    <row r="96982" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96982" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96982" s="11"/>
     </row>
-    <row r="97071" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="97071" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F97071" s="9"/>
     </row>
-    <row r="97196" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97196" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97196" s="11"/>
     </row>
-    <row r="98293" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98293" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98293" s="5"/>
     </row>
-    <row r="98424" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="98424" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F98424" s="6"/>
     </row>
-    <row r="99269" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99269" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99269" s="5"/>
     </row>
-    <row r="99371" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99371" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99371" s="5"/>
     </row>
-    <row r="101777" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101777" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101777" s="8"/>
     </row>
-    <row r="102284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102284" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102284" s="2"/>
     </row>
-    <row r="102289" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102289" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102289" s="8"/>
     </row>
-    <row r="102667" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102667" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102667" s="8"/>
     </row>
-    <row r="102822" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102822" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102822" s="6"/>
     </row>
-    <row r="102846" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102846" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102846" s="3"/>
     </row>
-    <row r="103152" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103152" s="5"/>
     </row>
-    <row r="103204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103204" s="2"/>
     </row>
-    <row r="103507" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103507" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103507" s="2"/>
     </row>
-    <row r="103760" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103760" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103760" s="2"/>
     </row>
-    <row r="104053" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104053" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104053" s="3"/>
     </row>
-    <row r="104188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104188" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104188" s="2"/>
     </row>
-    <row r="104337" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104337" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104337" s="3"/>
     </row>
-    <row r="104363" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104363" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104363" s="3"/>
     </row>
-    <row r="104513" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104513" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104513" s="5"/>
     </row>
-    <row r="104706" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104706" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104706" s="2"/>
     </row>
-    <row r="104990" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104990" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F104990" s="5"/>
     </row>
-    <row r="104992" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104992" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104992" s="8"/>
     </row>
-    <row r="108314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108314" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108314" s="2"/>
     </row>
-    <row r="110169" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110169" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110169" s="2"/>
     </row>
-    <row r="110170" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110170" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110170" s="2"/>
     </row>
-    <row r="110867" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110867" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110867" s="2"/>
     </row>
-    <row r="110868" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110868" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110868" s="2"/>
     </row>
-    <row r="110869" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110869" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110869" s="2"/>
     </row>
-    <row r="110870" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110870" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110870" s="2"/>
     </row>
-    <row r="110871" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110871" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110871" s="2"/>
     </row>
-    <row r="110872" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110872" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110872" s="2"/>
     </row>
-    <row r="110873" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110873" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110873" s="2"/>
     </row>
-    <row r="110874" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110874" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110874" s="2"/>
     </row>
-    <row r="110875" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110875" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110875" s="2"/>
     </row>
-    <row r="110876" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110876" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110876" s="2"/>
     </row>
-    <row r="110877" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110877" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110877" s="2"/>
     </row>
-    <row r="111315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111315" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111315" s="2"/>
     </row>
-    <row r="111358" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111358" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111358" s="2"/>
     </row>
-    <row r="111359" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111359" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111359" s="2"/>
     </row>
-    <row r="111724" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111724" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111724" s="2"/>
     </row>
-    <row r="111725" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111725" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111725" s="2"/>
     </row>
-    <row r="111726" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111726" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111726" s="2"/>
     </row>
-    <row r="111784" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="111784" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F111784" s="5"/>
     </row>
-    <row r="111807" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="111807" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F111807" s="5"/>
     </row>
-    <row r="111808" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="111808" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C111808" s="5"/>
       <c r="F111808" s="5"/>
     </row>
-    <row r="111809" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111809" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111809" s="5"/>
     </row>
-    <row r="111880" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="111880" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F111880" s="5"/>
     </row>
-    <row r="111923" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111923" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111923" s="4"/>
     </row>
-    <row r="111924" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111924" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111924" s="4"/>
     </row>
-    <row r="111925" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111925" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111925" s="4"/>
     </row>
-    <row r="111926" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111926" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111926" s="4"/>
     </row>
-    <row r="111937" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111937" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111937" s="3"/>
     </row>
-    <row r="111938" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111938" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111938" s="3"/>
     </row>
-    <row r="112592" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="112592" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F112592" s="6"/>
     </row>
-    <row r="113142" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="113142" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F113142" s="7"/>
     </row>
-    <row r="113553" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="113553" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F113553" s="6"/>
     </row>
-    <row r="113595" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="113595" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F113595" s="6"/>
     </row>
-    <row r="113661" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="113661" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F113661" s="6"/>
     </row>
-    <row r="114143" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="114143" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114143" s="6"/>
     </row>
-    <row r="114439" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="114439" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114439" s="6"/>
     </row>
-    <row r="114450" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="114450" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114450" s="6"/>
     </row>
-    <row r="114479" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="114479" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114479" s="6"/>
     </row>
-    <row r="114492" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114492" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114492" s="8"/>
     </row>
-    <row r="114555" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="114555" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114555" s="13"/>
     </row>
-    <row r="114797" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="114797" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114797" s="6"/>
     </row>
-    <row r="114833" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="114833" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114833" s="6"/>
     </row>
-    <row r="114919" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="114919" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114919" s="6"/>
     </row>
-    <row r="115116" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="115116" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F115116" s="4"/>
     </row>
-    <row r="115138" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115138" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115138" s="5"/>
     </row>
-    <row r="115170" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115170" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115170" s="5"/>
     </row>
-    <row r="115379" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115379" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115379" s="5"/>
     </row>
-    <row r="115555" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="115555" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F115555" s="6"/>
     </row>
-    <row r="115629" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="115629" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F115629" s="6"/>
     </row>
-    <row r="115697" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="115697" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C115697" s="7"/>
     </row>
-    <row r="115698" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="115698" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F115698" s="6"/>
     </row>
-    <row r="116593" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116593" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116593" s="2"/>
     </row>
-    <row r="116629" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116629" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116629" s="3"/>
     </row>
-    <row r="116677" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116677" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116677" s="4"/>
     </row>
-    <row r="116925" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116925" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116925" s="5"/>
     </row>
-    <row r="117132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117132" s="2"/>
     </row>
-    <row r="117168" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="117168" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F117168" s="6"/>
     </row>
-    <row r="117424" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="117424" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F117424" s="6"/>
     </row>
-    <row r="117425" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117425" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117425" s="2"/>
     </row>
-    <row r="117547" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117547" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117547" s="3"/>
     </row>
-    <row r="117585" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117585" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117585" s="3"/>
     </row>
-    <row r="117604" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117604" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117604" s="3"/>
     </row>
-    <row r="117620" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117620" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117620" s="3"/>
     </row>
-    <row r="117648" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117648" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117648" s="4"/>
     </row>
-    <row r="117709" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117709" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117709" s="2"/>
     </row>
-    <row r="117744" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117744" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117744" s="2"/>
     </row>
-    <row r="117784" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117784" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117784" s="2"/>
     </row>
-    <row r="117788" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117788" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117788" s="2"/>
     </row>
-    <row r="117861" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117861" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117861" s="3"/>
     </row>
-    <row r="117945" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="117945" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F117945" s="13"/>
     </row>
-    <row r="117972" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117972" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117972" s="3"/>
     </row>
-    <row r="118309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118309" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118309" s="3"/>
     </row>
-    <row r="118405" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="118405" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F118405" s="6"/>
     </row>
-    <row r="118619" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118619" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118619" s="2"/>
     </row>
-    <row r="118620" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118620" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118620" s="2"/>
     </row>
-    <row r="118776" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118776" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118776" s="2"/>
     </row>
-    <row r="118777" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118777" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118777" s="2"/>
     </row>
-    <row r="118778" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118778" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118778" s="2"/>
     </row>
-    <row r="118779" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118779" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118779" s="2"/>
     </row>
-    <row r="118780" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118780" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118780" s="2"/>
     </row>
-    <row r="118898" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="118898" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F118898" s="6"/>
     </row>
-    <row r="119092" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="119092" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F119092" s="4"/>
     </row>
-    <row r="119261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119261" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119261" s="8"/>
     </row>
-    <row r="119339" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="119339" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E119339" s="6"/>
     </row>
-    <row r="119387" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="119387" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E119387" s="6"/>
     </row>
-    <row r="119673" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119673" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119673" s="5"/>
     </row>
-    <row r="119801" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119801" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119801" s="4"/>
     </row>
-    <row r="119815" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119815" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119815" s="4"/>
     </row>
-    <row r="119819" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119819" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119819" s="4"/>
     </row>
-    <row r="119838" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119838" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119838" s="4"/>
     </row>
-    <row r="119847" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119847" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119847" s="4"/>
     </row>
-    <row r="119855" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119855" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119855" s="4"/>
     </row>
-    <row r="119860" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119860" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119860" s="4"/>
     </row>
-    <row r="119874" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119874" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119874" s="4"/>
     </row>
-    <row r="119880" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119880" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119880" s="4"/>
     </row>
-    <row r="119907" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119907" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119907" s="4"/>
     </row>
-    <row r="119918" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119918" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119918" s="4"/>
     </row>
-    <row r="119941" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119941" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119941" s="4"/>
     </row>
-    <row r="119943" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119943" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119943" s="4"/>
     </row>
-    <row r="119946" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119946" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119946" s="4"/>
     </row>
-    <row r="120011" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120011" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120011" s="4"/>
     </row>
-    <row r="120229" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="120229" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F120229" s="6"/>
     </row>
-    <row r="120308" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120308" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120308" s="4"/>
     </row>
-    <row r="120309" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120309" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120309" s="4"/>
     </row>
-    <row r="120310" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120310" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120310" s="4"/>
     </row>
-    <row r="120311" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120311" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120311" s="4"/>
     </row>
-    <row r="120315" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120315" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120315" s="4"/>
     </row>
-    <row r="120316" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120316" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120316" s="4"/>
     </row>
-    <row r="121001" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="121001" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F121001" s="5"/>
     </row>
-    <row r="122889" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="122889" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F122889" s="12"/>
     </row>
-    <row r="122896" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="122896" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E122896" s="6"/>
     </row>
-    <row r="123391" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="123391" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F123391" s="6"/>
     </row>
-    <row r="123786" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123786" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123786" s="3"/>
     </row>
-    <row r="123787" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123787" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123787" s="3"/>
     </row>
-    <row r="124461" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124461" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124461" s="3"/>
     </row>
-    <row r="124523" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124523" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124523" s="3"/>
     </row>
-    <row r="124787" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124787" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124787" s="3"/>
     </row>
-    <row r="125489" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="125489" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C125489" s="8"/>
     </row>
-    <row r="125576" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125576" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125576" s="2"/>
     </row>
-    <row r="125577" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125577" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125577" s="2"/>
     </row>
-    <row r="125578" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125578" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125578" s="2"/>
     </row>
-    <row r="125931" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="125931" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F125931" s="5"/>
     </row>
-    <row r="126904" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="126904" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F126904" s="5"/>
     </row>
-    <row r="127396" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127396" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127396" s="2"/>
     </row>
-    <row r="127433" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127433" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127433" s="2"/>
     </row>
-    <row r="127469" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127469" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127469" s="2"/>
     </row>
-    <row r="128459" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="128459" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C128459" s="5"/>
     </row>
-    <row r="128553" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="128553" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C128553" s="5"/>
     </row>
-    <row r="128700" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128700" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128700" s="3"/>
     </row>
-    <row r="129067" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129067" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129067" s="2"/>
       <c r="C129067" s="2"/>
     </row>
-    <row r="129320" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129320" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129320" s="3"/>
     </row>
-    <row r="129349" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129349" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129349" s="3"/>
     </row>
-    <row r="129392" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129392" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129392" s="3"/>
     </row>
-    <row r="129551" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129551" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129551" s="3"/>
     </row>
-    <row r="129622" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129622" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129622" s="3"/>
     </row>
-    <row r="129786" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129786" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129786" s="3"/>
     </row>
-    <row r="129817" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129817" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129817" s="3"/>
     </row>
-    <row r="129857" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129857" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129857" s="3"/>
     </row>
-    <row r="129879" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129879" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129879" s="3"/>
     </row>
-    <row r="129903" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129903" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129903" s="3"/>
     </row>
-    <row r="130555" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="130555" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D130555" s="3"/>
     </row>
-    <row r="130731" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="130731" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F130731" s="4"/>
     </row>
-    <row r="130911" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="130911" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D130911" s="3"/>
     </row>
-    <row r="130995" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="130995" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D130995" s="3"/>
     </row>
-    <row r="131044" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131044" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131044" s="8"/>
     </row>
-    <row r="131267" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131267" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D131267" s="3"/>
     </row>
-    <row r="131412" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131412" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D131412" s="3"/>
     </row>
-    <row r="131495" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131495" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D131495" s="3"/>
     </row>
-    <row r="131535" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131535" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D131535" s="3"/>
     </row>
-    <row r="131563" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="131563" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E131563" s="6"/>
     </row>
-    <row r="131643" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131643" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D131643" s="3"/>
     </row>
-    <row r="131680" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131680" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131680" s="8"/>
     </row>
-    <row r="131808" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="131808" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E131808" s="6"/>
     </row>
-    <row r="131869" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131869" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131869" s="8"/>
     </row>
-    <row r="131870" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131870" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131870" s="8"/>
     </row>
-    <row r="132141" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="132141" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F132141" s="6"/>
     </row>
-    <row r="132152" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="132152" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E132152" s="6"/>
     </row>
-    <row r="132477" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="132477" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E132477" s="5"/>
     </row>
-    <row r="132542" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132542" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132542" s="2"/>
     </row>
-    <row r="132743" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="132743" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F132743" s="3"/>
     </row>
-    <row r="132971" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132971" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F132971" s="6"/>
     </row>
-    <row r="132976" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132976" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132976" s="8"/>
     </row>
-    <row r="133015" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133015" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133015" s="3"/>
     </row>
-    <row r="133090" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="133090" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E133090" s="3"/>
     </row>
-    <row r="133484" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133484" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133484" s="2"/>
     </row>
-    <row r="133665" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="133665" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133665" s="4"/>
     </row>
-    <row r="134180" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="134180" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134180" s="5"/>
     </row>
-    <row r="134778" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="134778" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F134778" s="12"/>
     </row>
-    <row r="135266" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135266" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D135266" s="11"/>
     </row>
-    <row r="135565" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="135565" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F135565" s="5"/>
     </row>
-    <row r="135853" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135853" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135853" s="3"/>
     </row>
-    <row r="135978" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135978" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135978" s="2"/>
     </row>
-    <row r="136080" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136080" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136080" s="3"/>
     </row>
-    <row r="136138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136138" s="3"/>
     </row>
-    <row r="136218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136218" s="3"/>
     </row>
-    <row r="136242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136242" s="3"/>
     </row>
-    <row r="136317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136317" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136317" s="2"/>
     </row>
-    <row r="136342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136342" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136342" s="3"/>
     </row>
-    <row r="136416" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136416" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136416" s="3"/>
     </row>
-    <row r="136472" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136472" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136472" s="3"/>
     </row>
-    <row r="136590" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136590" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136590" s="3"/>
     </row>
-    <row r="136613" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136613" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136613" s="3"/>
     </row>
-    <row r="136623" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136623" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136623" s="3"/>
     </row>
-    <row r="136625" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136625" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136625" s="3"/>
     </row>
-    <row r="136706" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136706" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136706" s="2"/>
     </row>
-    <row r="136769" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="136769" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F136769" s="7"/>
     </row>
-    <row r="136799" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="136799" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F136799" s="6"/>
     </row>
-    <row r="137037" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137037" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137037" s="3"/>
     </row>
-    <row r="137178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137178" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137178" s="3"/>
     </row>
-    <row r="137185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137185" s="3"/>
     </row>
-    <row r="138272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138272" s="3"/>
     </row>
-    <row r="138294" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="138294" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F138294" s="6"/>
     </row>
-    <row r="138329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138329" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138329" s="2"/>
     </row>
-    <row r="138330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138330" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138330" s="2"/>
     </row>
-    <row r="139198" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="139198" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F139198" s="5"/>
     </row>
-    <row r="139291" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="139291" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139291" s="5"/>
     </row>
-    <row r="139418" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139418" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139418" s="3"/>
     </row>
-    <row r="139872" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139872" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139872" s="2"/>
     </row>
-    <row r="139878" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139878" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139878" s="2"/>
     </row>
-    <row r="139881" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139881" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139881" s="2"/>
     </row>
-    <row r="139883" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139883" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139883" s="2"/>
     </row>
-    <row r="139905" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139905" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139905" s="2"/>
     </row>
-    <row r="139917" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139917" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139917" s="2"/>
     </row>
-    <row r="140079" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140079" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140079" s="3"/>
     </row>
-    <row r="140155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140155" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140155" s="3"/>
     </row>
-    <row r="140174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140174" s="3"/>
     </row>
-    <row r="140225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140225" s="3"/>
     </row>
-    <row r="140333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140333" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140333" s="3"/>
     </row>
-    <row r="140556" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140556" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D140556" s="3"/>
     </row>
-    <row r="140557" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140557" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D140557" s="3"/>
     </row>
-    <row r="140614" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="140614" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F140614" s="5"/>
     </row>
-    <row r="140679" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140679" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140679" s="2"/>
     </row>
-    <row r="140680" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140680" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140680" s="2"/>
     </row>
-    <row r="140688" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140688" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140688" s="2"/>
     </row>
-    <row r="140697" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140697" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140697" s="2"/>
     </row>
-    <row r="140713" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140713" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140713" s="2"/>
     </row>
-    <row r="140714" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140714" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140714" s="2"/>
     </row>
-    <row r="140725" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140725" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140725" s="2"/>
     </row>
-    <row r="140748" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="140748" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F140748" s="5"/>
     </row>
-    <row r="140753" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140753" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140753" s="2"/>
     </row>
-    <row r="140754" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140754" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140754" s="2"/>
     </row>
-    <row r="140755" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140755" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140755" s="2"/>
     </row>
-    <row r="140842" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="140842" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C140842" s="8"/>
     </row>
-    <row r="140855" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140855" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140855" s="2"/>
     </row>
-    <row r="140856" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140856" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140856" s="2"/>
     </row>
-    <row r="140887" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140887" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140887" s="2"/>
     </row>
-    <row r="140994" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="140994" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C140994" s="5"/>
     </row>
-    <row r="141141" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="141141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141141" s="2"/>
     </row>
-    <row r="141147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="141147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F141147" s="5"/>
     </row>
-    <row r="141294" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="141294" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F141294" s="5"/>
     </row>
-    <row r="141772" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141772" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141772" s="3"/>
     </row>
-    <row r="142166" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="142166" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F142166" s="5"/>
     </row>
-    <row r="142219" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="142219" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F142219" s="2"/>
     </row>
-    <row r="142236" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="142236" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142236" s="4"/>
     </row>
-    <row r="142451" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="142451" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F142451" s="5"/>
     </row>
-    <row r="142456" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="142456" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F142456" s="5"/>
     </row>
-    <row r="142528" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="142528" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142528" s="4"/>
     </row>
-    <row r="142749" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="142749" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142749" s="3"/>
     </row>
-    <row r="142998" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142998" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B142998" s="2"/>
     </row>
-    <row r="143947" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="143947" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143947" s="5"/>
     </row>
-    <row r="145203" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="145203" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145203" s="5"/>
     </row>
-    <row r="145463" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="145463" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145463" s="5"/>
     </row>
-    <row r="145602" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="145602" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145602" s="2"/>
     </row>
-    <row r="145788" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145788" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145788" s="2"/>
     </row>
-    <row r="145823" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145823" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145823" s="2"/>
     </row>
-    <row r="145892" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="145892" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E145892" s="6"/>
     </row>
-    <row r="146059" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="146059" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146059" s="3"/>
     </row>
-    <row r="146068" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="146068" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F146068" s="5"/>
     </row>
-    <row r="146098" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146098" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B146098" s="2"/>
     </row>
-    <row r="147076" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147076" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147076" s="2"/>
     </row>
-    <row r="147463" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147463" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147463" s="2"/>
     </row>
-    <row r="148139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B148139" s="2"/>
     </row>
-    <row r="148266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148266" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B148266" s="2"/>
     </row>
-    <row r="148353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148353" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B148353" s="2"/>
     </row>
-    <row r="148428" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="148428" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148428" s="8"/>
     </row>
-    <row r="148429" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="148429" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148429" s="8"/>
     </row>
-    <row r="148721" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="148721" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148721" s="5"/>
     </row>
-    <row r="149460" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149460" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B149460" s="3"/>
     </row>
-    <row r="149567" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149567" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B149567" s="8"/>
     </row>
-    <row r="149579" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149579" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B149579" s="8"/>
     </row>
-    <row r="149780" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="149780" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E149780" s="6"/>
     </row>
-    <row r="149919" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="149919" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F149919" s="2"/>
     </row>
-    <row r="149957" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="149957" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F149957" s="5"/>
     </row>
-    <row r="150379" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="150379" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F150379" s="5"/>
     </row>
-    <row r="150610" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150610" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150610" s="2"/>
     </row>
-    <row r="150641" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="150641" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150641" s="6"/>
     </row>
-    <row r="150736" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="150736" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150736" s="5"/>
     </row>
-    <row r="150737" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="150737" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150737" s="5"/>
     </row>
-    <row r="150738" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="150738" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150738" s="5"/>
     </row>
-    <row r="150772" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150772" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150772" s="2"/>
     </row>
-    <row r="150774" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150774" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150774" s="2"/>
     </row>
-    <row r="150775" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150775" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150775" s="2"/>
     </row>
-    <row r="150800" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="150800" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F150800" s="5"/>
     </row>
-    <row r="150801" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="150801" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150801" s="5"/>
       <c r="F150801" s="5"/>
     </row>
-    <row r="151247" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151247" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151247" s="2"/>
     </row>
-    <row r="151312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151312" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151312" s="2"/>
     </row>
-    <row r="151608" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151608" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151608" s="3"/>
     </row>
-    <row r="151610" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151610" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151610" s="3"/>
     </row>
-    <row r="151612" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151612" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151612" s="3"/>
     </row>
-    <row r="151614" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151614" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151614" s="3"/>
     </row>
-    <row r="151616" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151616" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151616" s="3"/>
     </row>
-    <row r="151617" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151617" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C151617" s="3"/>
     </row>
-    <row r="151622" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151622" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151622" s="2"/>
     </row>
-    <row r="151666" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151666" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151666" s="5"/>
       <c r="F151666" s="5"/>
     </row>
-    <row r="151667" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151667" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F151667" s="5"/>
     </row>
-    <row r="151668" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151668" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151668" s="5"/>
       <c r="F151668" s="5"/>
     </row>
-    <row r="151669" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151669" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151669" s="5"/>
       <c r="F151669" s="5"/>
     </row>
-    <row r="151670" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151670" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151670" s="5"/>
       <c r="F151670" s="5"/>
     </row>
-    <row r="151671" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151671" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151671" s="5"/>
       <c r="F151671" s="5"/>
     </row>
-    <row r="151672" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151672" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151672" s="5"/>
       <c r="F151672" s="5"/>
     </row>
-    <row r="151673" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151673" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151673" s="5"/>
       <c r="F151673" s="5"/>
     </row>
-    <row r="151674" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151674" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151674" s="5"/>
       <c r="F151674" s="5"/>
     </row>
-    <row r="151675" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151675" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F151675" s="5"/>
     </row>
-    <row r="151676" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151676" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F151676" s="5"/>
     </row>
-    <row r="151807" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151807" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151807" s="3"/>
     </row>
-    <row r="151808" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151808" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151808" s="3"/>
     </row>
-    <row r="151809" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151809" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151809" s="3"/>
     </row>
-    <row r="151810" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151810" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151810" s="3"/>
     </row>
-    <row r="151811" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151811" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151811" s="3"/>
     </row>
-    <row r="151815" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151815" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151815" s="3"/>
     </row>
-    <row r="151973" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151973" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151973" s="3"/>
     </row>
-    <row r="151974" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151974" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151974" s="3"/>
     </row>
-    <row r="151975" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151975" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151975" s="3"/>
     </row>
-    <row r="151977" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151977" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151977" s="3"/>
     </row>
-    <row r="151981" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151981" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151981" s="3"/>
     </row>
-    <row r="151982" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151982" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151982" s="3"/>
     </row>
-    <row r="151984" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151984" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151984" s="3"/>
     </row>
-    <row r="151985" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151985" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C151985" s="3"/>
     </row>
-    <row r="151986" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151986" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C151986" s="3"/>
     </row>
-    <row r="151991" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151991" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151991" s="2"/>
     </row>
-    <row r="152272" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="152272" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F152272" s="6"/>
     </row>
-    <row r="152273" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="152273" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F152273" s="6"/>
     </row>
-    <row r="152274" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="152274" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F152274" s="6"/>
     </row>
-    <row r="152608" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152608" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152608" s="2"/>
     </row>
-    <row r="152623" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152623" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152623" s="4"/>
     </row>
-    <row r="152625" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152625" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152625" s="4"/>
     </row>
-    <row r="152627" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152627" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152627" s="4"/>
     </row>
-    <row r="152631" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152631" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152631" s="4"/>
     </row>
-    <row r="152633" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152633" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152633" s="4"/>
     </row>
-    <row r="152634" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152634" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152634" s="4"/>
     </row>
-    <row r="152636" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152636" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152636" s="4"/>
     </row>
-    <row r="152645" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152645" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152645" s="4"/>
     </row>
-    <row r="152654" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152654" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152654" s="4"/>
     </row>
-    <row r="152655" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152655" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152655" s="4"/>
     </row>
-    <row r="152664" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152664" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152664" s="4"/>
     </row>
-    <row r="152681" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152681" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152681" s="3"/>
     </row>
-    <row r="152706" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152706" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152706" s="2"/>
     </row>
-    <row r="152812" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152812" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152812" s="2"/>
     </row>
-    <row r="152813" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152813" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152813" s="2"/>
     </row>
-    <row r="152815" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152815" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152815" s="2"/>
     </row>
-    <row r="152816" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152816" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152816" s="2"/>
     </row>
-    <row r="152817" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152817" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152817" s="2"/>
     </row>
-    <row r="152818" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152818" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152818" s="2"/>
     </row>
-    <row r="152819" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152819" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152819" s="2"/>
     </row>
-    <row r="152820" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152820" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152820" s="2"/>
     </row>
-    <row r="152864" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152864" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152864" s="2"/>
     </row>
-    <row r="152890" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152890" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152890" s="2"/>
     </row>
-    <row r="152941" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="152941" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F152941" s="6"/>
     </row>
-    <row r="152949" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152949" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152949" s="3"/>
     </row>
-    <row r="152957" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152957" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152957" s="3"/>
     </row>
-    <row r="153087" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153087" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153087" s="2"/>
     </row>
-    <row r="153514" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153514" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153514" s="2"/>
     </row>
-    <row r="153518" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153518" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153518" s="2"/>
     </row>
-    <row r="153605" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="153605" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153605" s="5"/>
     </row>
-    <row r="153679" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="153679" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D153679" s="2"/>
     </row>
-    <row r="153856" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153856" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153856" s="2"/>
     </row>
-    <row r="154021" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154021" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B154021" s="3"/>
     </row>
-    <row r="154149" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="154149" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D154149" s="6"/>
     </row>
-    <row r="154298" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="154298" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D154298" s="8"/>
     </row>
-    <row r="154363" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="154363" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D154363" s="4"/>
     </row>
-    <row r="155450" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="155450" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F155450" s="5"/>
     </row>
-    <row r="155477" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="155477" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F155477" s="5"/>
     </row>
-    <row r="155613" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155613" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155613" s="2"/>
     </row>
-    <row r="155614" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155614" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155614" s="2"/>
     </row>
-    <row r="155615" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155615" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155615" s="2"/>
     </row>
-    <row r="155616" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155616" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155616" s="2"/>
     </row>
-    <row r="155617" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155617" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155617" s="2"/>
     </row>
-    <row r="155794" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="155794" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C155794" s="5"/>
     </row>
-    <row r="155896" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155896" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155896" s="2"/>
     </row>
-    <row r="155922" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155922" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F155922" s="4"/>
     </row>
-    <row r="155924" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155924" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155924" s="2"/>
     </row>
-    <row r="155927" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155927" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155927" s="2"/>
     </row>
-    <row r="156112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156112" s="2"/>
     </row>
-    <row r="156116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156116" s="2"/>
     </row>
-    <row r="156172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156172" s="2"/>
     </row>
-    <row r="156173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156173" s="2"/>
     </row>
-    <row r="156207" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="156207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156207" s="8"/>
       <c r="C156207" s="8"/>
     </row>
-    <row r="156226" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="156226" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C156226" s="5"/>
     </row>
-    <row r="156396" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="156396" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C156396" s="3"/>
     </row>
-    <row r="156397" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="156397" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C156397" s="3"/>
     </row>
-    <row r="156398" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="156398" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C156398" s="3"/>
     </row>
-    <row r="156399" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="156399" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C156399" s="3"/>
     </row>
-    <row r="156458" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156458" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156458" s="3"/>
     </row>
-    <row r="156902" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156902" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156902" s="6"/>
     </row>
-    <row r="157405" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157405" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B157405" s="6"/>
     </row>
-    <row r="157444" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157444" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B157444" s="3"/>
     </row>
-    <row r="157445" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157445" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B157445" s="3"/>
     </row>
-    <row r="157446" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157446" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B157446" s="3"/>
     </row>
-    <row r="158249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B158249" s="2"/>
     </row>
-    <row r="158251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B158251" s="2"/>
     </row>
-    <row r="158466" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="158466" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F158466" s="5"/>
     </row>
-    <row r="158543" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="158543" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C158543" s="6"/>
     </row>
-    <row r="158894" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158894" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B158894" s="3"/>
     </row>
-    <row r="158946" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="158946" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C158946" s="2"/>
     </row>
-    <row r="159163" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="159163" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F159163" s="5"/>
     </row>
   </sheetData>
